--- a/Test.xlsx
+++ b/Test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>鞋子</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,6 +47,12 @@
   <si>
     <t>项链</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火浣台</t>
+  </si>
+  <si>
+    <t>官银</t>
   </si>
 </sst>
 </file>
@@ -398,7 +404,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -449,6 +455,22 @@
         <v>30.5</v>
       </c>
     </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>7.8</v>
+      </c>
+    </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>7</v>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>鞋子</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,6 +53,14 @@
   </si>
   <si>
     <t>官银</t>
+  </si>
+  <si>
+    <t>台子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -404,7 +412,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -455,6 +463,19 @@
         <v>30.5</v>
       </c>
     </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11">
+        <v>7.5</v>
+      </c>
+    </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="G12" t="s">
         <v>9</v>
@@ -468,6 +489,14 @@
         <v>10</v>
       </c>
       <c r="H13">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14">
         <v>7.8</v>
       </c>
     </row>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -412,7 +412,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -422,7 +422,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -430,7 +430,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
@@ -438,7 +438,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -446,7 +446,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>0.04</v>
       </c>
       <c r="I4" t="s">
         <v>5</v>
@@ -460,12 +460,12 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>30.5</v>
+        <v>3.0499999999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E8">
-        <v>63</v>
+        <v>6.3E-2</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
@@ -473,7 +473,7 @@
         <v>11</v>
       </c>
       <c r="H11">
-        <v>7.5</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
@@ -481,7 +481,7 @@
         <v>9</v>
       </c>
       <c r="H12">
-        <v>7.5</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
@@ -489,7 +489,7 @@
         <v>10</v>
       </c>
       <c r="H13">
-        <v>7.8</v>
+        <v>7.8E-2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
@@ -497,7 +497,7 @@
         <v>12</v>
       </c>
       <c r="H14">
-        <v>7.8</v>
+        <v>7.8E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -505,7 +505,7 @@
         <v>7</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -515,7 +515,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>50</v>
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
